--- a/documents/Anforderungsartefakte/Ziele.xlsx
+++ b/documents/Anforderungsartefakte/Ziele.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -145,16 +145,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12943</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>182521</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>592063</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -171,7 +171,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="594360" y="2240281"/>
+          <a:off x="121920" y="68581"/>
           <a:ext cx="4737343" cy="2880000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -183,16 +183,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609591</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388611</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1045295</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>37741</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -209,7 +209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="861051" y="5204461"/>
+          <a:off x="388611" y="3032761"/>
           <a:ext cx="4154264" cy="2880000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -221,16 +221,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>220972</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190492</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495577</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190777</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -247,7 +247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5539732" y="2240280"/>
+          <a:off x="5067292" y="68580"/>
           <a:ext cx="4267485" cy="2880000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -259,16 +259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228591</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198111</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>516489</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>106321</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>211689</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -285,7 +285,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5547351" y="5273041"/>
+          <a:off x="5074911" y="3101341"/>
           <a:ext cx="4280778" cy="2880000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" activeCellId="1" sqref="I12:S24 D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -687,13 +686,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q4" sqref="C4:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/Anforderungsartefakte/Ziele.xlsx
+++ b/documents/Anforderungsartefakte/Ziele.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D34" activeCellId="1" sqref="I12:S24 D34"/>
     </sheetView>
   </sheetViews>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="C4:Q33"/>
     </sheetView>
   </sheetViews>
